--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>0.8905125301442052</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>1.218009596270675</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>-0.4641323501900163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.5544720893820188</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>0.7953247379026918</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.173294700162031</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>1.205864328335093</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>1.180518841971723</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>1.508698476056081</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9276272455014611</v>
+        <v>0.9512119708358302</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.129954091786578</v>
+        <v>0.9990492459760025</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.265990289415564</v>
+        <v>1.149724574326472</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.715659375508571</v>
+        <v>1.044407816150583</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.642047742738506</v>
+        <v>1.525861534474027</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.470010055742232</v>
+        <v>1.137551461271413</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.66194179127146</v>
+        <v>1.634644186146694</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.616008876909447</v>
+        <v>1.2772981976928</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.609733807897773</v>
+        <v>1.518308876725216</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.590469215865564</v>
+        <v>1.265181861560016</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.641178243814534</v>
+        <v>1.593309007378396</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.794850390332114</v>
+        <v>1.33496666414632</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.233734107395001</v>
+        <v>1.565661119702044</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.9628637208823232</v>
+        <v>1.412546132271975</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-3.450801915528212</v>
+        <v>0.287327989413555</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>4.307664622184548</v>
+        <v>0.9047322996724727</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>0.1757848091566316</v>
+        <v>-1.746350382706474</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>9.515221393159411</v>
+        <v>0.7112343933969312</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>6.15369818068785</v>
+        <v>5.778434165738466</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.641402330987509</v>
+        <v>1.531961367047852</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.2922548206748199</v>
+        <v>-0.2355225117835369</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>1.658286804611153</v>
+        <v>0.8847367780353999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.1450123585129193</v>
+        <v>0.1363842982220032</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.660123065973873</v>
+        <v>0.9899450936446508</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6213128948874713</v>
+        <v>0.678264046940269</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.5837874231427564</v>
+        <v>1.007646955063968</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>-1.0538757111625</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>-0.03775702182785556</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>1.570920254756558</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>0.485781149991249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>0.878183952843048</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>0.6274179984581574</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9512119708358302</v>
+        <v>0.4413109953541605</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.9990492459760025</v>
+        <v>0.6943226143418357</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.149724574326472</v>
+        <v>0.9083436352771646</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.044407816150583</v>
+        <v>0.8175300924317952</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.525861534474027</v>
+        <v>1.93704103170067</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.137551461271413</v>
+        <v>0.8819846436028733</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>1.634644186146694</v>
+        <v>1.58745197360306</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>1.2772981976928</v>
+        <v>0.9174072565958813</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.518308876725216</v>
+        <v>1.276746817047392</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.265181861560016</v>
+        <v>0.9840692158344266</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.593309007378396</v>
+        <v>1.116346046342809</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.33496666414632</v>
+        <v>1.076386909629967</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.565661119702044</v>
+        <v>1.437659299153027</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.412546132271975</v>
+        <v>1.280675138581411</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.287327989413555</v>
+        <v>-1.741236505435428</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.9047322996724727</v>
+        <v>-0.2374583495023508</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-1.746350382706474</v>
+        <v>-3.281345655000223</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.7112343933969312</v>
+        <v>-0.1411395765833157</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>5.778434165738466</v>
+        <v>4.407642498961351</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.531961367047852</v>
+        <v>1.101211681542535</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.2355225117835369</v>
+        <v>-1.129337961135779</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.8847367780353999</v>
+        <v>0.5661352122229735</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.1363842982220032</v>
+        <v>0.2034622429862187</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.9899450936446508</v>
+        <v>0.6701250445558804</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.678264046940269</v>
+        <v>0.9632017291179906</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.007646955063968</v>
+        <v>0.8649794511895736</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-3.281345655000223</v>
+        <v>-2.829585457923245</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1411395765833157</v>
+        <v>-0.02600701460458987</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.407642498961351</v>
+        <v>4.274815646690633</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.101211681542535</v>
+        <v>1.067796713188396</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.129337961135779</v>
+        <v>-0.3620058052652531</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5661352122229735</v>
+        <v>0.8526129829289797</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.2034622429862187</v>
+        <v>0.352566175393898</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.6701250445558804</v>
+        <v>0.7200685864094503</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.9632017291179906</v>
+        <v>0.9127736322763536</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8649794511895736</v>
+        <v>0.8664788249411304</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PRIVCON_yoy_AR2_50_9_summer.xlsx
@@ -451,7 +451,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.03775702182785556</v>
+        <v>-0.03775702182786667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.570920254756558</v>
+        <v>1.570920254756514</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>0.485781149991249</v>
+        <v>0.4857811499912712</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,7 +485,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.6274179984581574</v>
+        <v>0.6274179984581796</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -513,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.9083436352771646</v>
+        <v>0.9083436352771868</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.8175300924317952</v>
+        <v>0.8175300924318174</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -553,7 +553,7 @@
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.9174072565958813</v>
+        <v>0.9174072565959035</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.276746817047392</v>
+        <v>1.276746817047369</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -581,7 +581,7 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.116346046342809</v>
+        <v>1.116346046342831</v>
       </c>
       <c r="D12">
         <v>2019</v>
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.280675138581411</v>
+        <v>1.280675138581389</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-1.741236505435428</v>
+        <v>-1.741236505435417</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.2374583495023508</v>
+        <v>-0.2374583495023397</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -638,7 +638,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.02600701460458987</v>
+        <v>-0.02600701460454546</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.274815646690633</v>
+        <v>4.274815646690611</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.067796713188396</v>
+        <v>1.067796713188418</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -689,7 +689,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.7200685864094503</v>
+        <v>0.7200685864094281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
